--- a/csv_files/buildingRequirements.xlsx
+++ b/csv_files/buildingRequirements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>academia</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>fabricaArmadilhas</t>
-  </si>
-  <si>
-    <t>fabricaArmaduras</t>
   </si>
   <si>
     <t>ferreiro</t>
@@ -496,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AO40"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +504,7 @@
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="AK1" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL1" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="1">
         <v>0</v>
@@ -628,11 +625,8 @@
       <c r="AN1" s="1">
         <v>0</v>
       </c>
-      <c r="AO1" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -757,11 +751,8 @@
       <c r="AN2" s="1">
         <v>0</v>
       </c>
-      <c r="AO2" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -884,11 +875,8 @@
       <c r="AN3" s="1">
         <v>0</v>
       </c>
-      <c r="AO3" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1011,11 +999,8 @@
       <c r="AN4" s="1">
         <v>0</v>
       </c>
-      <c r="AO4" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1138,11 +1123,8 @@
       <c r="AN5" s="1">
         <v>0</v>
       </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1265,11 +1247,8 @@
       <c r="AN6" s="1">
         <v>0</v>
       </c>
-      <c r="AO6" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1391,11 +1370,8 @@
       <c r="AN7" s="1">
         <v>0</v>
       </c>
-      <c r="AO7" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1449,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -1517,11 +1493,8 @@
       <c r="AN8" s="1">
         <v>0</v>
       </c>
-      <c r="AO8" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1644,11 +1617,8 @@
       <c r="AN9" s="1">
         <v>0</v>
       </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1771,11 +1741,8 @@
       <c r="AN10" s="1">
         <v>0</v>
       </c>
-      <c r="AO10" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1881,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ11" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
@@ -1898,11 +1865,8 @@
       <c r="AN11" s="1">
         <v>0</v>
       </c>
-      <c r="AO11" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1984,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
         <v>0</v>
@@ -2025,11 +1989,8 @@
       <c r="AN12" s="1">
         <v>0</v>
       </c>
-      <c r="AO12" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2152,11 +2113,8 @@
       <c r="AN13" s="1">
         <v>0</v>
       </c>
-      <c r="AO13" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2279,11 +2237,8 @@
       <c r="AN14" s="1">
         <v>0</v>
       </c>
-      <c r="AO14" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2406,11 +2361,8 @@
       <c r="AN15" s="1">
         <v>0</v>
       </c>
-      <c r="AO15" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2516,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
@@ -2533,11 +2485,8 @@
       <c r="AN16" s="1">
         <v>0</v>
       </c>
-      <c r="AO16" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2659,19 +2608,17 @@
       <c r="AN17" s="1">
         <v>0</v>
       </c>
-      <c r="AO17" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>3</v>
+        <f t="shared" ref="B18:C39" ca="1" si="1">IF(B18&gt;0,B18,0)</f>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ref="B18:C40" ca="1" si="1">IF(C18&gt;0,C18,0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="D18" s="1">
@@ -2705,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
         <v>0</v>
@@ -2785,11 +2732,8 @@
       <c r="AN18" s="1">
         <v>0</v>
       </c>
-      <c r="AO18" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2832,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" s="1">
         <v>0</v>
@@ -2847,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -2912,11 +2856,8 @@
       <c r="AN19" s="1">
         <v>0</v>
       </c>
-      <c r="AO19" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2959,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O20" s="1">
         <v>0</v>
@@ -2977,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -3039,11 +2980,8 @@
       <c r="AN20" s="1">
         <v>0</v>
       </c>
-      <c r="AO20" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3071,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -3086,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1">
         <v>0</v>
@@ -3166,11 +3104,8 @@
       <c r="AN21" s="1">
         <v>0</v>
       </c>
-      <c r="AO21" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3198,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
@@ -3213,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
@@ -3293,11 +3228,8 @@
       <c r="AN22" s="1">
         <v>0</v>
       </c>
-      <c r="AO22" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3340,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O23" s="1">
         <v>0</v>
@@ -3409,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL23" s="1">
         <v>0</v>
@@ -3420,11 +3352,8 @@
       <c r="AN23" s="1">
         <v>0</v>
       </c>
-      <c r="AO23" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3467,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24" s="1">
         <v>0</v>
@@ -3530,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="1">
         <v>0</v>
@@ -3539,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="AL24" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="1">
         <v>0</v>
@@ -3547,11 +3476,8 @@
       <c r="AN24" s="1">
         <v>0</v>
       </c>
-      <c r="AO24" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3594,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25" s="1">
         <v>0</v>
@@ -3660,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="1">
         <v>0</v>
@@ -3674,11 +3600,8 @@
       <c r="AN25" s="1">
         <v>0</v>
       </c>
-      <c r="AO25" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3691,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -3709,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -3721,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" s="1">
         <v>0</v>
@@ -3801,11 +3724,8 @@
       <c r="AN26" s="1">
         <v>0</v>
       </c>
-      <c r="AO26" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3818,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -3836,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
@@ -3848,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" s="1">
         <v>0</v>
@@ -3928,11 +3848,8 @@
       <c r="AN27" s="1">
         <v>0</v>
       </c>
-      <c r="AO27" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3966,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
@@ -3975,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1">
         <v>0</v>
@@ -4055,17 +3972,13 @@
       <c r="AN28" s="1">
         <v>0</v>
       </c>
-      <c r="AO28" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -4102,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O29" s="1">
         <v>0</v>
@@ -4182,16 +4095,14 @@
       <c r="AN29" s="1">
         <v>0</v>
       </c>
-      <c r="AO29" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -4216,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -4270,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC30" s="1">
         <v>0</v>
@@ -4308,11 +4219,8 @@
       <c r="AN30" s="1">
         <v>0</v>
       </c>
-      <c r="AO30" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -4343,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -4355,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
         <v>0</v>
@@ -4400,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="1">
         <v>0</v>
@@ -4435,11 +4343,8 @@
       <c r="AN31" s="1">
         <v>0</v>
       </c>
-      <c r="AO31" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4482,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="1">
         <v>0</v>
@@ -4562,11 +4467,8 @@
       <c r="AN32" s="1">
         <v>0</v>
       </c>
-      <c r="AO32" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4612,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="O33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="1">
         <v>0</v>
@@ -4689,11 +4591,8 @@
       <c r="AN33" s="1">
         <v>0</v>
       </c>
-      <c r="AO33" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4736,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
@@ -4816,11 +4715,8 @@
       <c r="AN34" s="1">
         <v>0</v>
       </c>
-      <c r="AO34" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4926,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ35" s="1">
         <v>0</v>
@@ -4943,11 +4839,8 @@
       <c r="AN35" s="1">
         <v>0</v>
       </c>
-      <c r="AO35" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4990,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" s="1">
         <v>0</v>
@@ -5053,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="AI36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="1">
         <v>0</v>
@@ -5070,11 +4963,8 @@
       <c r="AN36" s="1">
         <v>0</v>
       </c>
-      <c r="AO36" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5117,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O37" s="1">
         <v>0</v>
@@ -5183,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="1">
         <v>0</v>
@@ -5197,11 +5087,8 @@
       <c r="AN37" s="1">
         <v>0</v>
       </c>
-      <c r="AO37" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5223,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -5324,11 +5211,8 @@
       <c r="AN38" s="1">
         <v>0</v>
       </c>
-      <c r="AO38" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5350,29 +5234,29 @@
         <v>0</v>
       </c>
       <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
         <v>10</v>
       </c>
-      <c r="H39" s="1">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>5</v>
-      </c>
       <c r="O39" s="1">
         <v>0</v>
       </c>
@@ -5449,136 +5333,6 @@
         <v>0</v>
       </c>
       <c r="AN39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <v>10</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0</v>
-      </c>
-      <c r="T40" s="1">
-        <v>0</v>
-      </c>
-      <c r="U40" s="1">
-        <v>0</v>
-      </c>
-      <c r="V40" s="1">
-        <v>0</v>
-      </c>
-      <c r="W40" s="1">
-        <v>0</v>
-      </c>
-      <c r="X40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="1">
         <v>0</v>
       </c>
     </row>
